--- a/reports/Debug-snowbowl-20251217/For The Week Ending (Prior Year)_Payroll_history.xlsx
+++ b/reports/Debug-snowbowl-20251217/For The Week Ending (Prior Year)_Payroll_history.xlsx
@@ -22,6 +22,57 @@
     <t>D8030</t>
   </si>
   <si>
+    <t>D1100</t>
+  </si>
+  <si>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>D5000</t>
+  </si>
+  <si>
+    <t>D5112</t>
+  </si>
+  <si>
+    <t>D6760</t>
+  </si>
+  <si>
+    <t>D6780</t>
+  </si>
+  <si>
+    <t>D8040</t>
+  </si>
+  <si>
+    <t>D1020</t>
+  </si>
+  <si>
+    <t>D1060</t>
+  </si>
+  <si>
+    <t>D1070</t>
+  </si>
+  <si>
+    <t>D5820</t>
+  </si>
+  <si>
+    <t>D9007</t>
+  </si>
+  <si>
+    <t>D1010</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>D6721</t>
+  </si>
+  <si>
+    <t>D6790</t>
+  </si>
+  <si>
+    <t>D9012</t>
+  </si>
+  <si>
     <t>D1000</t>
   </si>
   <si>
@@ -37,19 +88,31 @@
     <t>D7010</t>
   </si>
   <si>
-    <t>D1020</t>
-  </si>
-  <si>
-    <t>D1060</t>
-  </si>
-  <si>
-    <t>D1070</t>
-  </si>
-  <si>
-    <t>D5820</t>
-  </si>
-  <si>
-    <t>D9007</t>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
+    <t>D6215</t>
+  </si>
+  <si>
+    <t>D8050</t>
+  </si>
+  <si>
+    <t>D8060</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>D4034</t>
+  </si>
+  <si>
+    <t>D8010</t>
+  </si>
+  <si>
+    <t>D8020</t>
   </si>
   <si>
     <t>D1030</t>
@@ -74,69 +137,6 @@
   </si>
   <si>
     <t>D6781</t>
-  </si>
-  <si>
-    <t>D1100</t>
-  </si>
-  <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>D5000</t>
-  </si>
-  <si>
-    <t>D5112</t>
-  </si>
-  <si>
-    <t>D6760</t>
-  </si>
-  <si>
-    <t>D6780</t>
-  </si>
-  <si>
-    <t>D8040</t>
-  </si>
-  <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>D5111</t>
-  </si>
-  <si>
-    <t>D6215</t>
-  </si>
-  <si>
-    <t>D8050</t>
-  </si>
-  <si>
-    <t>D8060</t>
-  </si>
-  <si>
-    <t>D1010</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>D6721</t>
-  </si>
-  <si>
-    <t>D6790</t>
-  </si>
-  <si>
-    <t>D9012</t>
-  </si>
-  <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>D4034</t>
-  </si>
-  <si>
-    <t>D8010</t>
-  </si>
-  <si>
-    <t>D8020</t>
   </si>
   <si>
     <t>total</t>
@@ -533,7 +533,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>2691.81</v>
+        <v>2013.42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -541,7 +541,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>1758.67</v>
+        <v>6616.06</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -549,7 +549,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>625.74</v>
+        <v>2785.59</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -557,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>997.52</v>
+        <v>999.28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -565,7 +565,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>906.60</v>
+        <v>1633.91</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -573,7 +573,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>3757.11</v>
+        <v>125.29</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -581,7 +581,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>815.84</v>
+        <v>1371.01</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -589,7 +589,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>2565.15</v>
+        <v>3757.11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -597,7 +597,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>43.50</v>
+        <v>815.84</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -605,7 +605,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>634.69</v>
+        <v>2565.15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -613,7 +613,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>4816.00</v>
+        <v>43.50</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -621,7 +621,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>1059.74</v>
+        <v>634.69</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -629,7 +629,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>525.38</v>
+        <v>13455.73</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -637,7 +637,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>3555.48</v>
+        <v>5243.34</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -645,7 +645,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>192.57</v>
+        <v>1779.62</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -653,7 +653,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>1717.00</v>
+        <v>2220.96</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -661,7 +661,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>2771.82</v>
+        <v>331.00</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -669,7 +669,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>188.35</v>
+        <v>2691.81</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -677,7 +677,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>2013.42</v>
+        <v>1758.67</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -685,7 +685,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>6616.06</v>
+        <v>625.74</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -693,7 +693,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>2785.59</v>
+        <v>997.52</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -701,7 +701,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>999.28</v>
+        <v>906.60</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -709,7 +709,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>1633.91</v>
+        <v>8404.66</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>125.29</v>
+        <v>4817.60</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -725,7 +725,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>1371.01</v>
+        <v>838.08</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -733,7 +733,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>8404.66</v>
+        <v>807.12</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -741,7 +741,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>4817.60</v>
+        <v>2039.24</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -749,7 +749,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>838.08</v>
+        <v>9770.17</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -757,7 +757,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>807.12</v>
+        <v>438.57</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -765,7 +765,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>2039.24</v>
+        <v>2793.12</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -773,7 +773,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>13455.73</v>
+        <v>2303.90</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -781,7 +781,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>5243.34</v>
+        <v>4816.00</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -789,7 +789,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>1779.62</v>
+        <v>1059.74</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -797,7 +797,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>2220.96</v>
+        <v>525.38</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -805,7 +805,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>331.00</v>
+        <v>3555.48</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -813,7 +813,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>9770.17</v>
+        <v>192.57</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -821,7 +821,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>438.57</v>
+        <v>1717.00</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -829,7 +829,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>2793.12</v>
+        <v>2771.82</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -837,7 +837,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>2303.90</v>
+        <v>188.35</v>
       </c>
     </row>
   </sheetData>
